--- a/testing/results_new_dataset/GPT-4/BASELINE_GPT_4.xlsx
+++ b/testing/results_new_dataset/GPT-4/BASELINE_GPT_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="286">
   <si>
     <t>Statement</t>
   </si>
@@ -868,7 +868,10 @@
     <t>Perry pushed for a law that lets insurance companies raise homeowners’ rates without having to justify the increase.</t>
   </si>
   <si>
-    <t xml:space="preserve">Back to Basics </t>
+    <t>Back to Basics</t>
+  </si>
+  <si>
+    <t>Without specific information about the law in question, the time period, or the jurisdiction, it is impossible to definitively fact-check this claim. The claim refers to a person named Perry, but without further context, it's unclear who this person is. It could refer to any number of public figures, including former Texas Governor Rick Perry or U.S. Energy Secretary Rick Perry. Additionally, the claim refers to a group or entity called 'Back to Basics', but it's unclear who or what this refers to. Without more specific information, it's impossible to verify the accuracy of this claim.</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1256,7 @@
     <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3263,9 +3266,15 @@
       <c r="C101" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="D101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
